--- a/bip8013_01_data.xlsx
+++ b/bip8013_01_data.xlsx
@@ -14,15 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>X</t>
   </si>
@@ -160,13 +157,43 @@
   </si>
   <si>
     <t>20-Nov</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>Croston</t>
+  </si>
+  <si>
+    <t>SBA</t>
+  </si>
+  <si>
+    <t>SBJ</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>Error size</t>
+  </si>
+  <si>
+    <t>RMSE variation</t>
+  </si>
+  <si>
+    <t>MAE variation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +203,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,17 +234,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2393,323 +2438,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="0.1"/>
-      <sheetName val="0.15"/>
-      <sheetName val="0.5"/>
-      <sheetName val="optimal"/>
-      <sheetName val="interdemand inter."/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>BIP001271</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Dec-17</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Jan-18</v>
-          </cell>
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Feb-18</v>
-          </cell>
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Mar-18</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Apr-18</v>
-          </cell>
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>May-18</v>
-          </cell>
-          <cell r="B7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Jun-18</v>
-          </cell>
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Jul-18</v>
-          </cell>
-          <cell r="B9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Aug-18</v>
-          </cell>
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Sep-18</v>
-          </cell>
-          <cell r="B11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Oct-18</v>
-          </cell>
-          <cell r="B12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Nov-18</v>
-          </cell>
-          <cell r="B13">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Dec-18</v>
-          </cell>
-          <cell r="B14">
-            <v>5480</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Jan-19</v>
-          </cell>
-          <cell r="B15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Feb-19</v>
-          </cell>
-          <cell r="B16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Mar-19</v>
-          </cell>
-          <cell r="B17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Apr-19</v>
-          </cell>
-          <cell r="B18">
-            <v>1520</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>May-19</v>
-          </cell>
-          <cell r="B19">
-            <v>3001</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Jun-19</v>
-          </cell>
-          <cell r="B20">
-            <v>1001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Jul-19</v>
-          </cell>
-          <cell r="B21">
-            <v>3000</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Aug-19</v>
-          </cell>
-          <cell r="B22">
-            <v>3000</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Sep-19</v>
-          </cell>
-          <cell r="B23">
-            <v>2000</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Oct-19</v>
-          </cell>
-          <cell r="B24">
-            <v>2000</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Nov-19</v>
-          </cell>
-          <cell r="B25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Dec-19</v>
-          </cell>
-          <cell r="B26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Jan-20</v>
-          </cell>
-          <cell r="B27">
-            <v>1000</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Feb-20</v>
-          </cell>
-          <cell r="B28">
-            <v>1000</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Mar-20</v>
-          </cell>
-          <cell r="B29">
-            <v>1000</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Apr-20</v>
-          </cell>
-          <cell r="B30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>May-20</v>
-          </cell>
-          <cell r="B31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Jun-20</v>
-          </cell>
-          <cell r="B32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Jul-20</v>
-          </cell>
-          <cell r="B33">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Aug-20</v>
-          </cell>
-          <cell r="B34">
-            <v>1000</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Sep-20</v>
-          </cell>
-          <cell r="B35">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Oct-20</v>
-          </cell>
-          <cell r="B36">
-            <v>3000</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>Nov-20</v>
-          </cell>
-          <cell r="B37">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2997,10 +2725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29:R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3417,7 +3145,7 @@
         <v>-493.60500000000008</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3449,7 +3177,7 @@
         <v>-444.24450000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3481,7 +3209,7 @@
         <v>1120.17995</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3513,7 +3241,7 @@
         <v>2489.161955</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3545,7 +3273,7 @@
         <v>240.24575949999991</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3577,7 +3305,7 @@
         <v>2215.2211835500002</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3609,7 +3337,7 @@
         <v>1993.699065195</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3641,7 +3369,7 @@
         <v>794.32915867549991</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3673,7 +3401,7 @@
         <v>714.89624280794987</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3705,7 +3433,7 @@
         <v>-1356.5933814728451</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3737,7 +3465,7 @@
         <v>-1220.9340433255611</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3769,7 +3497,7 @@
         <v>-98.840638993004632</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3801,7 +3529,7 @@
         <v>-88.956575093704032</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3832,8 +3560,20 @@
       <c r="J29">
         <v>-80.060917584333765</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>48</v>
+      </c>
+      <c r="R29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3864,8 +3604,23 @@
       <c r="J30">
         <v>-1072.0548258259009</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>50</v>
+      </c>
+      <c r="O30" s="2">
+        <v>223.45830000000001</v>
+      </c>
+      <c r="P30" s="2">
+        <v>301.12630000000001</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>303.39080000000001</v>
+      </c>
+      <c r="R30" s="2">
+        <v>303.51330000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3896,8 +3651,23 @@
       <c r="J31">
         <v>-964.8493432433105</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" s="2">
+        <v>759.26070000000004</v>
+      </c>
+      <c r="P31" s="2">
+        <v>757.05420000000004</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>756.36189999999999</v>
+      </c>
+      <c r="R31" s="2">
+        <v>756.32380000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3928,8 +3698,23 @@
       <c r="J32">
         <v>-868.36440891897951</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1312.3209999999999</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1272.4095</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1271.94</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1271.9137000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3960,8 +3745,27 @@
       <c r="J33">
         <v>-780.52796802708156</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O33" s="2">
+        <f>O32-O31</f>
+        <v>553.06029999999987</v>
+      </c>
+      <c r="P33" s="2">
+        <f>P32-P31</f>
+        <v>515.35529999999994</v>
+      </c>
+      <c r="Q33" s="2">
+        <f>Q32-Q31</f>
+        <v>515.57810000000006</v>
+      </c>
+      <c r="R33" s="2">
+        <f>R32-R31</f>
+        <v>515.58990000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3992,8 +3796,15 @@
       <c r="J34">
         <v>296.52482877562659</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -4024,8 +3835,24 @@
       <c r="J35">
         <v>-733.12765410193606</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4">
+        <f>(O32-P32)/P32</f>
+        <v>3.1366867348915528E-2</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>(O32-Q32)/Q32</f>
+        <v>3.1747566709121385E-2</v>
+      </c>
+      <c r="R35" s="4">
+        <f>(O32-R32)/R32</f>
+        <v>3.1768900673056551E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -4056,8 +3883,24 @@
       <c r="J36">
         <v>2340.185111308258</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O36" s="4">
+        <f>(P32-O32)/O32</f>
+        <v>-3.0412909646344098E-2</v>
+      </c>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4">
+        <f>(P32-Q32)/Q32</f>
+        <v>3.6912118496149613E-4</v>
+      </c>
+      <c r="R36" s="4">
+        <f>(P32-R32)/R32</f>
+        <v>3.898063209791021E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -4088,8 +3931,24 @@
       <c r="J37">
         <v>-893.83339982256825</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" s="4">
+        <f>(Q32-O32)/O32</f>
+        <v>-3.0770672724127604E-2</v>
+      </c>
+      <c r="P37" s="4">
+        <f>(Q32-P32)/P32</f>
+        <v>-3.6898498478667868E-4</v>
+      </c>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4">
+        <f>(Q32-R32)/R32</f>
+        <v>2.0677503513007207E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>804.45010000000002</v>
       </c>
@@ -4102,8 +3961,24 @@
       <c r="F38">
         <v>755.99332939270596</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O38" s="4">
+        <f>(R32-O32)/O32</f>
+        <v>-3.0790713552552959E-2</v>
+      </c>
+      <c r="P38" s="4">
+        <f>(R32-P32)/P32</f>
+        <v>-3.896544312188155E-4</v>
+      </c>
+      <c r="Q38" s="4">
+        <f>(R32-Q32)/Q32</f>
+        <v>-2.067707596269635E-5</v>
+      </c>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>804.45010000000002</v>
       </c>
@@ -4116,8 +3991,15 @@
       <c r="F39">
         <v>755.99332939270596</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>804.45010000000002</v>
       </c>
@@ -4130,8 +4012,24 @@
       <c r="F40">
         <v>755.99332939270596</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O40" s="3"/>
+      <c r="P40" s="4">
+        <f>(O31-P31)/P31</f>
+        <v>2.914586564607931E-3</v>
+      </c>
+      <c r="Q40" s="4">
+        <f>(O31-Q31)/Q31</f>
+        <v>3.8325568752207786E-3</v>
+      </c>
+      <c r="R40" s="4">
+        <f>(O31-R31)/R31</f>
+        <v>3.8831251905599652E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>804.45010000000002</v>
       </c>
@@ -4144,8 +4042,24 @@
       <c r="F41">
         <v>755.99332939270596</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" s="4">
+        <f>(P31-O31)/O31</f>
+        <v>-2.9061164366863783E-3</v>
+      </c>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="4">
+        <f>(P31-Q31)/Q31</f>
+        <v>9.1530258200478584E-4</v>
+      </c>
+      <c r="R41" s="4">
+        <f>(P31-R31)/R31</f>
+        <v>9.6572393993158941E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>804.45010000000002</v>
       </c>
@@ -4158,8 +4072,46 @@
       <c r="F42">
         <v>755.99332939270596</v>
       </c>
+      <c r="N42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42" s="4">
+        <f>(Q31-O31)/O31</f>
+        <v>-3.8179244625726723E-3</v>
+      </c>
+      <c r="P42" s="4">
+        <f>(Q31-P31)/P31</f>
+        <v>-9.1446556930804379E-4</v>
+      </c>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="4">
+        <f>(Q31-R31)/R31</f>
+        <v>5.0375249331021729E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O43" s="4">
+        <f>(R31-O31)/O31</f>
+        <v>-3.8681048551571771E-3</v>
+      </c>
+      <c r="P43" s="4">
+        <f>(R31-P31)/P31</f>
+        <v>-9.6479221699058198E-4</v>
+      </c>
+      <c r="Q43" s="4">
+        <f>(R31-Q31)/Q31</f>
+        <v>-5.0372711793105669E-5</v>
+      </c>
+      <c r="R43" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N39:R39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
